--- a/final_data.xlsx
+++ b/final_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aawaizali/Library/Mobile Documents/com~apple~CloudDocs/Code/pynb/practice/Car-Price-Prediction-Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4500DDB-ED82-BF47-995D-EF2D53617A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CCA09DDC-F175-E24F-B952-E984B182ED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14000" xr2:uid="{82B29503-FC44-6544-89DD-A7A985DDFD4B}"/>
+    <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14000" activeTab="1" xr2:uid="{82B29503-FC44-6544-89DD-A7A985DDFD4B}"/>
   </bookViews>
   <sheets>
     <sheet name="final_data" sheetId="1" r:id="rId1"/>
+    <sheet name="R analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -296,6 +297,228 @@
   </si>
   <si>
     <t>Toyota Fortuner 2.7 VVTi 2013</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>R script</t>
+  </si>
+  <si>
+    <t># Descriptive statistics</t>
+  </si>
+  <si>
+    <t>descriptive_stats &lt;- summary(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["skewness"] &lt;- skewness(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["cv"] &lt;- sd(data$Price) / mean(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["variance"] &lt;- var(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["range"] &lt;- range(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["IQR"] &lt;- IQR(data$Price)</t>
+  </si>
+  <si>
+    <t>descriptive_stats["kurtosis"] &lt;- kurtosis(data$Price)</t>
+  </si>
+  <si>
+    <t># Print the statistics</t>
+  </si>
+  <si>
+    <t>print(descriptive_stats)</t>
+  </si>
+  <si>
+    <t>ggplot(data, aes(x = Price)) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_histogram(bins = 30, color = "black", fill = "blue") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Histogram of Car Prices", x = "Price", y = "Frequency") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Histogram </t>
+  </si>
+  <si>
+    <t># Box plot of Body Type against Price</t>
+  </si>
+  <si>
+    <t>ggplot(data, aes(x = `Body.Type`, y = Price)) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_boxplot() +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Box Plot of Prices by Body Type", x = "Body Type", y = "Price") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  theme(axis.text.x = element_text(angle = 45, hjust = 1))</t>
+  </si>
+  <si>
+    <t>library(car)</t>
+  </si>
+  <si>
+    <t>library(ggplot2)</t>
+  </si>
+  <si>
+    <t>names(car_data) &lt;- make.names(names(car_data), unique = TRUE)</t>
+  </si>
+  <si>
+    <t># Convert Body Type to a factor</t>
+  </si>
+  <si>
+    <t>car_data$Body.Type &lt;- as.factor(car_data$Body.Type)</t>
+  </si>
+  <si>
+    <t># Regression Model 1: Price ~ Body Type</t>
+  </si>
+  <si>
+    <t>model1 &lt;- lm(Price ~ Body.Type, data = car_data)</t>
+  </si>
+  <si>
+    <t>summary(model1)</t>
+  </si>
+  <si>
+    <t>car_data &lt;- read_excel("path")</t>
+  </si>
+  <si>
+    <t># Regression Model 2: Price ~ Displacement</t>
+  </si>
+  <si>
+    <t>model2 &lt;- lm(Price ~ Displacement, data = car_data)</t>
+  </si>
+  <si>
+    <t>summary(model2)</t>
+  </si>
+  <si>
+    <t># Plotting</t>
+  </si>
+  <si>
+    <t># Scatter plot for Price vs Displacement</t>
+  </si>
+  <si>
+    <t>ggplot(car_data, aes(x = Displacement, y = Price)) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_point() +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_smooth(method = "lm", col = "blue") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Scatter Plot of Price vs Displacement", x = "Displacement (cc)", y = "Price")</t>
+  </si>
+  <si>
+    <t># Residual plot for Price ~ Body Type</t>
+  </si>
+  <si>
+    <t>plot(model1$residuals ~ fitted(model1),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     xlab = "Fitted Values", ylab = "Residuals",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     main = "Residual Plot for Price ~ Body Type")</t>
+  </si>
+  <si>
+    <t>abline(h = 0, col = "red")</t>
+  </si>
+  <si>
+    <t># Residual plot for Price ~ Displacement</t>
+  </si>
+  <si>
+    <t>plot(model2$residuals ~ fitted(model2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     main = "Residual Plot for Price ~ Displacement")</t>
+  </si>
+  <si>
+    <t>ggplot(car_data, aes(x = Price)) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_density(fill = "blue", alpha = 0.5) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Density Plot of Car Prices", x = "Price", y = "Density")</t>
+  </si>
+  <si>
+    <t># Scatter plot for Price vs Displacement with regression line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_point(aes(color = Body.Type), alpha = 0.6) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_smooth(method = "lm", color = "red", se = FALSE) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Price vs Displacement by Body Type", x = "Displacement (cc)", y = "Price") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  scale_color_discrete(name = "Body Type")</t>
+  </si>
+  <si>
+    <t>car_data$Predicted.Price &lt;- predict(model1, newdata = car_data)</t>
+  </si>
+  <si>
+    <t># Boxplot of actual vs. predicted prices by body type</t>
+  </si>
+  <si>
+    <t>ggplot(car_data, aes(x = Body.Type, y = Price)) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_boxplot(aes(fill = "Actual"), alpha = 0.6) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  geom_boxplot(aes(y = Predicted.Price, fill = "Predicted"), alpha = 0.6) +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  labs(title = "Actual vs Predicted Prices by Body Type", x = "Body Type", y = "Price") +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  scale_fill_manual(values = c("Actual" = "blue", "Predicted" = "red"))</t>
+  </si>
+  <si>
+    <t>body_types &lt;- unique(car_data$Body.Type)</t>
+  </si>
+  <si>
+    <t>data_for_prediction1 &lt;- data.frame(Body.Type = body_types)</t>
+  </si>
+  <si>
+    <t># Predict prices based on body type</t>
+  </si>
+  <si>
+    <t>predicted_prices_body_type &lt;- predict(model1, newdata = data_for_prediction1)</t>
+  </si>
+  <si>
+    <t>data_for_prediction1$Predicted_Price &lt;- predicted_prices_body_type</t>
+  </si>
+  <si>
+    <t># Display predictions for different body types</t>
+  </si>
+  <si>
+    <t>print(data_for_prediction1)</t>
+  </si>
+  <si>
+    <t>displacement_values &lt;- data.frame(Displacement = c(1000, 1500, 2000, 2500, 3000))</t>
+  </si>
+  <si>
+    <t>predicted_prices_displacement &lt;- predict(model2, newdata = displacement_values)</t>
+  </si>
+  <si>
+    <t>displacement_values$Predicted_Price &lt;- predicted_prices_displacement</t>
+  </si>
+  <si>
+    <t># Display predictions for different displacements</t>
+  </si>
+  <si>
+    <t>print(displacement_values)</t>
   </si>
 </sst>
 </file>
@@ -847,6 +1070,583 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9527E8-B32A-5B69-757C-16BE12858C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="406400"/>
+          <a:ext cx="7772400" cy="859727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>194581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1860739C-1FB4-1B2A-7255-2D91D74D8DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5499100" y="3251200"/>
+          <a:ext cx="7772400" cy="5274581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>194581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAE21C0-A962-5138-9378-86252B2D6BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5503333" y="8940800"/>
+          <a:ext cx="7772400" cy="5274581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>102773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF3E5EA-EC0C-4E20-05D6-855B638D8DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="16311084"/>
+          <a:ext cx="7772400" cy="5274581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D24309-2D27-13E7-E9CC-9096E45C6657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="22278554"/>
+          <a:ext cx="7772400" cy="3334651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>128132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540A528A-7CAA-F346-D30C-7B778D09B2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="26455783"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>128132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F3C2EA-D73B-C232-796B-16B65EFCA07D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="33020000"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>128132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9B9777-2989-D4B2-E1E2-111B3C6918A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="38788554"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>128132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BE1C9F-5339-7AD4-6F9D-6ADA48AB4DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="44358193"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>128131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D935BC0-D7F2-C545-25DB-1E1EBFD66F4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="49927831"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336014</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>128132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260EB7BC-EB8D-0389-F2DD-D58F5295E1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="55696386"/>
+          <a:ext cx="7772400" cy="5299939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83544</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>76965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AE6439-DCC9-042B-A422-AEE73A321435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="61464940"/>
+          <a:ext cx="5867400" cy="3060700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70844</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>148575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67811DB2-0514-0BAB-ED65-6B36BD8F65B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5921566" y="64846506"/>
+          <a:ext cx="5854700" cy="1739900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1166,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC7B440-8A07-6445-984D-A66FEE94AF6A}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,4 +4027,418 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DFB52F-A98E-074B-8F2B-9C8A23E84918}">
+  <dimension ref="A1:D332"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>